--- a/rotmic/static/uploadexample_dnacomponent.xlsx
+++ b/rotmic/static/uploadexample_dnacomponent.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>AmpR, KanR</t>
-  </si>
-  <si>
-    <t>Clear the example data (except Status and Type columns) before inserting your own data.</t>
   </si>
   <si>
     <t>This is an example vector backbone. Multiple markers can be specified by name or ID, separated by comma.</t>
@@ -232,6 +229,92 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="219075"/>
+          <a:ext cx="10601325" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>* Clear the example data (except Status and Type columns) before inserting your own data!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>* Markers can be referenced by their ID or by their Name (but by ID is safer). You do NOT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> need to specify markers for plasmid constructs -- markers will be taken from the associated Vector Backbnone.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>* If left empty, the new construct's name will be automatically composed from insert and vector names (only for plasmid entries).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -540,128 +623,99 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -920,17 +974,42 @@
         <v>10</v>
       </c>
     </row>
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C45">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D45">
       <formula1>typeChoices</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="2400" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/rotmic/static/uploadexample_dnacomponent.xlsx
+++ b/rotmic/static/uploadexample_dnacomponent.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="statusChoices">predefined!$A$5:$A$8</definedName>
-    <definedName name="typeChoices">predefined!$C$5:$C$16</definedName>
+    <definedName name="typeChoices">predefined!$C$5:$C$17</definedName>
     <definedName name="validStatus">predefined!$A$5:$A$8</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -150,6 +150,9 @@
   <si>
     <t>mTq2 expression plasmid_x000D_
 _x000D_test construct (hypothetical)</t>
+  </si>
+  <si>
+    <t>Fragment / CDS</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -723,7 +726,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1018,7 +1021,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1066,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
         <v>24</v>
@@ -1077,7 +1080,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
         <v>24</v>
@@ -1088,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
         <v>24</v>
@@ -1096,7 +1099,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
@@ -1104,7 +1107,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s">
         <v>24</v>
@@ -1112,7 +1115,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
         <v>24</v>
@@ -1120,7 +1123,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
         <v>24</v>
@@ -1128,7 +1131,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
         <v>24</v>
@@ -1136,7 +1139,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
         <v>24</v>
@@ -1144,7 +1147,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L15" t="s">
         <v>24</v>
@@ -1152,18 +1155,21 @@
     </row>
     <row r="16" spans="1:12">
       <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="L16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="12:12">
       <c r="L17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="12:12">
+    <row r="18" spans="3:12">
       <c r="L18" t="s">
         <v>24</v>
       </c>

--- a/rotmic/static/uploadexample_dnacomponent.xlsx
+++ b/rotmic/static/uploadexample_dnacomponent.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -55,9 +55,6 @@
     <t>generic plasmid</t>
   </si>
   <si>
-    <t>sbf0003</t>
-  </si>
-  <si>
     <t>AAATTTCCCGGG</t>
   </si>
   <si>
@@ -73,18 +70,12 @@
     <t>available</t>
   </si>
   <si>
-    <t>mTq2-His_pET52</t>
-  </si>
-  <si>
     <t>mtp0002</t>
   </si>
   <si>
     <t>mtv0010</t>
   </si>
   <si>
-    <t>pUC19a</t>
-  </si>
-  <si>
     <t>This worksheet contains pre-defined choices for the input sheet -- do not modify!</t>
   </si>
   <si>
@@ -133,12 +124,6 @@
     <t>Vector Backbone / yeast integrating</t>
   </si>
   <si>
-    <t>Another example plasmid. Note that markers are specified in the backbone -- NOT the plasmid.</t>
-  </si>
-  <si>
-    <t>mtv0001</t>
-  </si>
-  <si>
     <t>sbf0001</t>
   </si>
   <si>
@@ -148,11 +133,31 @@
     <t>This is an example vector backbone. Multiple markers can be specified by name or ID, separated by comma.</t>
   </si>
   <si>
-    <t>mTq2 expression plasmid_x000D_
-_x000D_test construct (hypothetical)</t>
-  </si>
-  <si>
     <t>Fragment / CDS</t>
+  </si>
+  <si>
+    <t>mtf0001</t>
+  </si>
+  <si>
+    <t>mCitrine</t>
+  </si>
+  <si>
+    <t>An example insert which can be linked into multiple different vector backbones</t>
+  </si>
+  <si>
+    <t>pET52</t>
+  </si>
+  <si>
+    <t>mCit_pET52</t>
+  </si>
+  <si>
+    <t>mCitrine test expression plasmid\nAdditional info…</t>
+  </si>
+  <si>
+    <t>Another example plasmid referring to existing Database entries for insert and backbone. Note that markers are specified in the backbone -- NOT the plasmid.</t>
+  </si>
+  <si>
+    <t>v0000</t>
   </si>
 </sst>
 </file>
@@ -247,7 +252,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -257,7 +262,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9525" y="219075"/>
-          <a:ext cx="10601325" cy="485775"/>
+          <a:ext cx="10601325" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -299,7 +304,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>* Markers can be referenced by their ID or by their Name (but by ID is safer). You do NOT</a:t>
+            <a:t>* Markers can be referenced by their ID or by their Name . You do NOT</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -310,6 +315,20 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>* If left empty, the new construct's name will be automatically composed from insert and vector names (only for plasmid entries).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>* Insert,  Vector and Marker references can refer to new entries  from the same table as long as these are defined </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t>before </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(above) the referring entry.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -605,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -655,83 +674,92 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -739,7 +767,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -747,7 +775,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -755,7 +783,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -763,7 +791,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -771,7 +799,7 @@
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -779,7 +807,7 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -787,7 +815,7 @@
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -795,7 +823,7 @@
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -803,7 +831,7 @@
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -811,7 +839,7 @@
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -819,7 +847,7 @@
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -827,7 +855,7 @@
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -835,7 +863,7 @@
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -843,7 +871,7 @@
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -851,7 +879,7 @@
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -859,7 +887,7 @@
     </row>
     <row r="28" spans="3:4">
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -867,7 +895,7 @@
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -875,7 +903,7 @@
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -883,7 +911,7 @@
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -891,7 +919,7 @@
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -899,7 +927,7 @@
     </row>
     <row r="33" spans="3:4">
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -907,7 +935,7 @@
     </row>
     <row r="34" spans="3:4">
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -915,7 +943,7 @@
     </row>
     <row r="35" spans="3:4">
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -923,7 +951,7 @@
     </row>
     <row r="36" spans="3:4">
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -931,7 +959,7 @@
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -939,7 +967,7 @@
     </row>
     <row r="38" spans="3:4">
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -947,7 +975,7 @@
     </row>
     <row r="39" spans="3:4">
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -955,7 +983,7 @@
     </row>
     <row r="40" spans="3:4">
       <c r="C40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -963,7 +991,7 @@
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -971,7 +999,7 @@
     </row>
     <row r="42" spans="3:4">
       <c r="C42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -979,7 +1007,7 @@
     </row>
     <row r="43" spans="3:4">
       <c r="C43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -987,26 +1015,18 @@
     </row>
     <row r="44" spans="3:4">
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C44">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D44">
       <formula1>typeChoices</formula1>
     </dataValidation>
   </dataValidations>
@@ -1034,12 +1054,12 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1050,128 +1070,128 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="C13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="C15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="C16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:12">
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="3:12">
       <c r="L18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/rotmic/static/uploadexample_dnacomponent.xlsx
+++ b/rotmic/static/uploadexample_dnacomponent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="75" windowWidth="26265" windowHeight="15390"/>
+    <workbookView xWindow="8160" yWindow="165" windowWidth="19545" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -151,20 +151,23 @@
     <t>mCit_pET52</t>
   </si>
   <si>
-    <t>mCitrine test expression plasmid\nAdditional info…</t>
-  </si>
-  <si>
     <t>Another example plasmid referring to existing Database entries for insert and backbone. Note that markers are specified in the backbone -- NOT the plasmid.</t>
   </si>
   <si>
     <t>v0000</t>
+  </si>
+  <si>
+    <t>mCitrine test expression plasmidAdditional info…</t>
+  </si>
+  <si>
+    <t>Projects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +189,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -220,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -230,6 +240,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,14 +256,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -261,8 +272,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="219075"/>
-          <a:ext cx="10601325" cy="828675"/>
+          <a:off x="9525" y="171451"/>
+          <a:ext cx="10515600" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -298,29 +309,37 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>* Clear the example data (except Status and Type columns) before inserting your own data!</a:t>
+            <a:t>Clear the example data (except Status and Type columns). Fields marked in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Bold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> are required. Rows without any value in the first column will be ignored.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>* Markers can be referenced by their ID or by their Name . You do NOT</a:t>
+            <a:t>Markers can be referenced by their ID or by their Name . You do NOT</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> need to specify markers for plasmid constructs -- markers will be taken from the associated Vector Backbnone.</a:t>
+            <a:t> need to specify markers for plasmid constructs -- markers will be taken from the associated Vector Backbone.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>* If left empty, the new construct's name will be automatically composed from insert and vector names (only for plasmid entries).</a:t>
+            <a:t>If left empty, the new construct's name will be automatically composed from insert and vector names (only for plasmid entries).</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>* Insert,  Vector and Marker references can refer to new entries  from the same table as long as these are defined </a:t>
+            <a:t>Insert,  Vector and Marker references can refer to new entries  from the same table as long as these are defined </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
@@ -329,6 +348,12 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>(above) the referring entry.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Projects are referenced by their name, separated by comma (you can only refer to projects that are already registered on the server).</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -624,38 +649,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" customWidth="1"/>
-    <col min="9" max="9" width="45.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -668,13 +694,16 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -690,11 +719,11 @@
       <c r="G8" t="s">
         <v>35</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -707,11 +736,11 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -730,14 +759,14 @@
       <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -751,13 +780,13 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -765,7 +794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -773,7 +802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -781,7 +810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -789,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="C16" t="s">
         <v>15</v>
       </c>

--- a/rotmic/static/uploadexample_dnacomponent.xlsx
+++ b/rotmic/static/uploadexample_dnacomponent.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -161,13 +161,19 @@
   </si>
   <si>
     <t>Projects</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>raik, admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +198,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -230,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,6 +253,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,9 +273,9 @@
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -273,7 +286,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9525" y="171451"/>
-          <a:ext cx="10515600" cy="952500"/>
+          <a:ext cx="10515600" cy="1162049"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -319,6 +332,37 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t> are required. Rows without any value in the first column will be ignored.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Authors: provide one or more rotmic user names separated by comma.  Leave empty to register the user who is uploading the file as single author.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -649,413 +693,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" customWidth="1"/>
-    <col min="10" max="10" width="45.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" customWidth="1"/>
+    <col min="11" max="11" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H9" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
       <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
       <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
       <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
       <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
       <c r="C32" t="s">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
       <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
       <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
       <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
       <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
       <c r="C37" t="s">
         <v>15</v>
       </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
       <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
       <c r="C39" t="s">
         <v>15</v>
       </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
       <c r="C40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
       <c r="C41" t="s">
         <v>15</v>
       </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
       <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
       <c r="C43" t="s">
         <v>15</v>
       </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C45">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E45">
       <formula1>typeChoices</formula1>
     </dataValidation>
   </dataValidations>
